--- a/Problem List.xlsx
+++ b/Problem List.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yao/Dropbox/leetcode_passed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0846F5A0-89DE-8441-8EA6-7ADD9A97AFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E903D4-68F3-2141-9CA7-43E8BD1EC0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" xr2:uid="{971F3734-D38A-944A-9689-565BF33F7D69}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" activeTab="4" xr2:uid="{971F3734-D38A-944A-9689-565BF33F7D69}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trees" sheetId="1" r:id="rId1"/>
+    <sheet name="graph" sheetId="6" r:id="rId2"/>
+    <sheet name="DP" sheetId="3" r:id="rId3"/>
+    <sheet name="str" sheetId="5" r:id="rId4"/>
+    <sheet name="backtracking" sheetId="2" r:id="rId5"/>
+    <sheet name="math" sheetId="4" r:id="rId6"/>
+    <sheet name="DP2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">backtracking!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DP!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">math!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">str!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Trees!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
   <si>
     <t xml:space="preserve">type </t>
   </si>
@@ -65,9 +75,6 @@
     <t>Sum of Nodes with Even-Valued Grandparent</t>
   </si>
   <si>
-    <t>Binary Tree</t>
-  </si>
-  <si>
     <t>pass p and grandpa to recursive calls, initially a root has None and None as p and grandpa</t>
   </si>
   <si>
@@ -87,9 +94,6 @@
   </si>
   <si>
     <t>elements that fall on the same diagonal have the same i-j; dictionary, list.pop()</t>
-  </si>
-  <si>
-    <t>other notes</t>
   </si>
   <si>
     <t>Matrix
@@ -114,9 +118,6 @@
     <t>Problem description</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -159,7 +160,196 @@
     <t>n</t>
   </si>
   <si>
-    <t>77, 78, 90</t>
+    <t>similar questions</t>
+  </si>
+  <si>
+    <t>1079. Letter Tile Possibilities</t>
+  </si>
+  <si>
+    <t>permutations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations/</t>
+  </si>
+  <si>
+    <t>need a set to remember visited elements</t>
+  </si>
+  <si>
+    <t>78, 90</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CUzm-buvH_8</t>
+  </si>
+  <si>
+    <t>Letter Tile Possibilities</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-tile-possibilities/</t>
+  </si>
+  <si>
+    <t>Backtracking, dfs</t>
+  </si>
+  <si>
+    <t>is the cur path is in the res?</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>Balance a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>inorder traversal to get vals in sorted list; build a bst based on that sorted list(divide and conquer)</t>
+  </si>
+  <si>
+    <t>inorder Traversal, building bst from sorted array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balance-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>divide and conquer</t>
+  </si>
+  <si>
+    <t>recurisve, be careful about what to return</t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All Paths From Source to Target</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-paths-from-source-to-target/</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>if initial node can reach to desination node, the neighbors of initia node can also, so recursive method, backtracking</t>
+  </si>
+  <si>
+    <t>backtracking, dfs, deepcopy</t>
+  </si>
+  <si>
+    <t>Matrix Block Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/matrix-block-sum/</t>
+  </si>
+  <si>
+    <t>Minimum Add to Make Parentheses Valid</t>
+  </si>
+  <si>
+    <t>matching</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-add-to-make-parentheses-valid/</t>
+  </si>
+  <si>
+    <t>trick: what if ")" is added first after previous chs has been balanced out?</t>
+  </si>
+  <si>
+    <t>deque()</t>
+  </si>
+  <si>
+    <t>Maximum Level Sum of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>level Order Traversal</t>
+  </si>
+  <si>
+    <t>level Order Traversal, get sum for each level</t>
+  </si>
+  <si>
+    <t>level Order Traversal, deque(), cannot mutate deque during loop</t>
+  </si>
+  <si>
+    <t>Binary Tree Level order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Given a binary tree, collect a tree's nodes as if you were doing this: Collect and remove all leaves, repeat until the tree is empty.</t>
+  </si>
+  <si>
+    <t>Find leaves of Binary Tree(onion peeling)</t>
+  </si>
+  <si>
+    <t>y(lc_passed)</t>
+  </si>
+  <si>
+    <t>remember dfs remove needs to return root after all</t>
+  </si>
+  <si>
+    <t>DP, DP with memo</t>
+  </si>
+  <si>
+    <t>climb stairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>f(n) = f(n-1) + f(n-2)</t>
+  </si>
+  <si>
+    <t>unique paths</t>
+  </si>
+  <si>
+    <t>f(n, m) = f(n-1, m) + f(n, m-1)</t>
+  </si>
+  <si>
+    <t>transition function, 1 dimension</t>
+  </si>
+  <si>
+    <t>transition function, 2 dimensions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3mY5W0yojtA</t>
+  </si>
+  <si>
+    <t>other notes</t>
+  </si>
+  <si>
+    <t>Dp和recursive with memo重要区别是: recursive with memo is top down; dp 是 down-top approach. Dp 通常会申请一个array从最小的字问题开始来存入这个array，没有之前的结果无法计算后面的结果，recursive因为有 recursive call 在stack上 可以不需要从子问题开始计算，但最后还是归结到子问题，也就是最后一个 recursive call 会回归到子问题上。</t>
+  </si>
+  <si>
+    <t>2 sets of subproblems</t>
+  </si>
+  <si>
+    <t>multiple states</t>
+  </si>
+  <si>
+    <t>rob houses</t>
+  </si>
+  <si>
+    <t>The k-th Lexicographical String of All Happy Strings of Length n</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/the-k-th-lexicographical-string-of-all-happy-strings-of-length-n/</t>
+  </si>
+  <si>
+    <t>curr[-1] == current char?, the criteria of happy strings</t>
+  </si>
+  <si>
+    <t>refer to permutation, no need to sort because the charList is sorted</t>
   </si>
 </sst>
 </file>
@@ -197,7 +387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +412,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -236,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -259,9 +455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -271,6 +464,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -287,6 +505,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584201</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AE6888-7193-5F4B-9369-A16CAD3E17E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="8839200" cy="4210886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,21 +855,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4221AF81-DEED-2D44-A049-D6854125283D}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="78.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -623,185 +890,202 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="7">
         <v>1347</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="11">
         <v>78</v>
       </c>
+      <c r="D3" s="7">
+        <v>1315</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="11">
-        <v>90</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1161</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D5" s="7">
-        <v>1315</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1395</v>
+        <v>48</v>
+      </c>
+      <c r="D6" s="15">
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>1329</v>
+        <v>1382</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="11">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D8" s="7">
+        <v>366</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>80</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -811,11 +1095,782 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{662EC687-E137-F041-AB3B-C3031001D0D0}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{5C79C587-AFEF-8A4F-9820-05ED8F19172E}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{1C68687D-E2A4-1641-B941-B5276DE8CF56}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{D9BFC1B4-1BB6-1E46-A08C-B21AF80CDB30}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{5C79C587-AFEF-8A4F-9820-05ED8F19172E}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{D9BFC1B4-1BB6-1E46-A08C-B21AF80CDB30}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{01134A0E-EE90-F44C-8F55-DD1903CF5999}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9101F27F-6A36-B24C-B22D-0092D4922FE7}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.5" style="13" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="13">
+        <v>797</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29F0AC-F96D-BA4D-AC0D-93788BDD8319}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1395</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1314</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="13">
+        <v>70</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="7">
+        <v>62</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="17">
+        <v>62</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6" s="17">
+        <v>926</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7" s="17">
+        <v>845</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="17">
+        <v>801</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="17">
+        <v>926</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10" s="17">
+        <v>790</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="17">
+        <v>818</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E12" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{56111DC6-0C87-A147-9D02-20A42385A33D}"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{662EC687-E137-F041-AB3B-C3031001D0D0}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{7A7CC52B-A6F9-5245-99A8-FAB3E5606719}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F6D865-E81C-5547-A7DD-F3E559866290}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1347</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="7">
+        <v>921</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{6C0CDCD8-3932-354D-B4C7-0823F1696E99}"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{2AB1A955-35F1-A84D-8D58-5DB94CB25A0C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6F08FB-F100-4F49-B8BE-49076099DFB4}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="15">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="13">
+        <v>1079</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="15">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="10">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1079</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>1415</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{7A9435F1-E7A5-384D-BE65-52BAF5C1386D}"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{0DC47451-E446-CD4D-A57E-714E24CBAD6A}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{D389C267-23D2-F846-AAE3-C60758BE7102}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06804720-9728-B54D-A58C-EBC4257B67A3}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1329</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{2E3506A5-D6D9-9441-BA98-E609362C999B}"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C843C22C-6CC0-EE42-AD0B-923E2730FFF1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778B41AC-E536-6F4F-8445-EF258238FE3C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Problem List.xlsx
+++ b/Problem List.xlsx
@@ -8,24 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yao/Dropbox/leetcode_passed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E903D4-68F3-2141-9CA7-43E8BD1EC0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EBA0B4-CD94-BE45-8C66-CDAC2C4A6F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" activeTab="4" xr2:uid="{971F3734-D38A-944A-9689-565BF33F7D69}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" activeTab="9" xr2:uid="{971F3734-D38A-944A-9689-565BF33F7D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
-    <sheet name="graph" sheetId="6" r:id="rId2"/>
-    <sheet name="DP" sheetId="3" r:id="rId3"/>
-    <sheet name="str" sheetId="5" r:id="rId4"/>
-    <sheet name="backtracking" sheetId="2" r:id="rId5"/>
-    <sheet name="math" sheetId="4" r:id="rId6"/>
-    <sheet name="DP2" sheetId="7" r:id="rId7"/>
+    <sheet name="stack" sheetId="10" r:id="rId2"/>
+    <sheet name="graph" sheetId="6" r:id="rId3"/>
+    <sheet name="DP" sheetId="3" r:id="rId4"/>
+    <sheet name="str" sheetId="5" r:id="rId5"/>
+    <sheet name="backtracking" sheetId="2" r:id="rId6"/>
+    <sheet name="math" sheetId="4" r:id="rId7"/>
+    <sheet name="DP2" sheetId="7" r:id="rId8"/>
+    <sheet name="sorting" sheetId="8" r:id="rId9"/>
+    <sheet name="array, list" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">backtracking!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DP!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">math!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">str!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">backtracking!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DP!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">math!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">str!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Trees!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="152">
   <si>
     <t xml:space="preserve">type </t>
   </si>
@@ -292,9 +295,6 @@
     <t>Find leaves of Binary Tree(onion peeling)</t>
   </si>
   <si>
-    <t>y(lc_passed)</t>
-  </si>
-  <si>
     <t>remember dfs remove needs to return root after all</t>
   </si>
   <si>
@@ -350,13 +350,209 @@
   </si>
   <si>
     <t>refer to permutation, no need to sort because the charList is sorted</t>
+  </si>
+  <si>
+    <t>y locked</t>
+  </si>
+  <si>
+    <t>two sum in BSTs</t>
+  </si>
+  <si>
+    <t>inorder traversal to get vals in 2 sorted lists; two ptrs pointing to low and high end of each list; ptrs moving to each opposite end to search sum</t>
+  </si>
+  <si>
+    <t>inorder Traversal, searching a sum within two sorted lists</t>
+  </si>
+  <si>
+    <r>
+      <t>Given two binary search trees, return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> if and only if there is a node in the first tree and a node in the second tree whose values sum up to a given integer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>DP, Matrix</t>
+  </si>
+  <si>
+    <t>Count Square Submatrices with All Ones</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-square-submatrices-with-all-ones/</t>
+  </si>
+  <si>
+    <t>matrix[i][j] = min(matrix[i-1][j-1], matrix[i-1][j], matrix[i][j-1]) + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix 可以直接用来记录 想要的dp值 不需要额外allocate memory </t>
+  </si>
+  <si>
+    <t>Pancake Sorting</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pancake-sorting/</t>
+  </si>
+  <si>
+    <t>找到最大的数字，假设它的下标是I; 反转0到i之间的数字，使得A[i]变成第一个数; 反转整个数组，让最大的数到末尾</t>
+  </si>
+  <si>
+    <t>reversed()</t>
+  </si>
+  <si>
+    <t>Basic sorting</t>
+  </si>
+  <si>
+    <t>Interval List Intersections</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/interval-list-intersections/</t>
+  </si>
+  <si>
+    <t>merge two lists, sort, compare pre and current interval, find intersection</t>
+  </si>
+  <si>
+    <t>sort(key = lambda x: x[0])    A.extend(B)</t>
+  </si>
+  <si>
+    <t>delete nodes and return forests</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-nodes-and-return-forest/</t>
+  </si>
+  <si>
+    <t>how to tell parent, a child becomes None? By returning None; post Order process</t>
+  </si>
+  <si>
+    <t>"not in" or "in" works faster in a hashset than in a list</t>
+  </si>
+  <si>
+    <t>Flip Equivalent Binary Trees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flip-equivalent-binary-trees/</t>
+  </si>
+  <si>
+    <t>recursive; my own solution is level order sorting and comparison</t>
+  </si>
+  <si>
+    <t>sort tree nodes according to value [TreeNode].sort(key=lambda node: node.val)</t>
+  </si>
+  <si>
+    <t>constructor binary tree from inorder and postorder traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inoder tells how to divide nodes into left and right subtrees; postorder tells the order of the root  and root of each substree by popping element from the end </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>constructor binary tree from inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t>inoder tells how to divide nodes into left and right subtrees; preorder tells the order of the root  and root of each substree by popping element from the beginning</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>105, 106</t>
+  </si>
+  <si>
+    <t>889, 106</t>
+  </si>
+  <si>
+    <t>889, 105</t>
+  </si>
+  <si>
+    <t>Minimum Cost Tree From Leaf Values</t>
+  </si>
+  <si>
+    <t>Sum of Subarray Minimums</t>
+  </si>
+  <si>
+    <t>Online Stock Span</t>
+  </si>
+  <si>
+    <t>Score of Parentheses</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Next Greater Element I</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>rotate array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-array/</t>
+  </si>
+  <si>
+    <t>cyclic replacement: find the pre's next position; use count to remember how many times replacemnet has been done; two while loops, one is controlled by count, one is controlled by if cur == start</t>
+  </si>
+  <si>
+    <t>can also be solved with extra array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -386,8 +582,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +632,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -432,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -488,7 +708,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -853,27 +1092,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4221AF81-DEED-2D44-A049-D6854125283D}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -902,7 +1141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="34">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -928,7 +1167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="51">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -952,7 +1191,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="34">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
@@ -981,7 +1220,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
@@ -1007,7 +1246,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -1036,7 +1275,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="51">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -1065,9 +1304,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="34">
       <c r="A8" s="7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>23</v>
@@ -1081,11 +1320,164 @@
       <c r="E8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="19" t="s">
         <v>79</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="40" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1214</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="34">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1110</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="34">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="7">
+        <v>951</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51">
+      <c r="A12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="7">
+        <v>106</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51">
+      <c r="A13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="7">
+        <v>105</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="7">
+        <v>889</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1495,210 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DB88C3-6BA9-D049-956E-7794CD3923A7}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="99.33203125" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>986</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB94368-34BE-F746-B88B-4E90CBF90096}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1130</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>907</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>901</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>856</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>503</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>496</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>84</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>42</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>1130</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9101F27F-6A36-B24C-B22D-0092D4922FE7}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1111,7 +1706,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="13" bestFit="1" customWidth="1"/>
@@ -1125,7 +1720,7 @@
     <col min="10" max="10" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -1155,7 +1750,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="34">
       <c r="A2" s="13" t="s">
         <v>61</v>
       </c>
@@ -1186,36 +1781,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29F0AC-F96D-BA4D-AC0D-93788BDD8319}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.83203125" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -1224,31 +1819,31 @@
       <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="13">
@@ -1257,23 +1852,23 @@
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="13"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="13">
@@ -1282,128 +1877,157 @@
       <c r="E3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="13"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11" ht="119">
+      <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>83</v>
+      <c r="C4" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="D4" s="13">
         <v>70</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>89</v>
+      <c r="H4" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="I4" s="7">
         <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:11" ht="17">
+      <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>83</v>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="D5" s="17">
         <v>62</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>90</v>
+      <c r="H5" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="I5" s="18">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="D6" s="17">
         <v>926</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="D7" s="17">
         <v>845</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="D8" s="17">
         <v>801</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="D9" s="17">
         <v>926</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="D10" s="17">
         <v>790</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="D11" s="17">
         <v>818</v>
       </c>
       <c r="J11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="E12" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E12" s="17" t="s">
-        <v>96</v>
+    <row r="13" spans="1:11">
+      <c r="A13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1277</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="18">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +2041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F6D865-E81C-5547-A7DD-F3E559866290}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -1425,7 +2049,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -1438,7 +2062,7 @@
     <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +2093,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="51">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -1498,7 +2122,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="34">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -1536,15 +2160,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6F08FB-F100-4F49-B8BE-49076099DFB4}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -1557,7 +2181,7 @@
     <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1588,7 +2212,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -1619,7 +2243,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -1646,7 +2270,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="85">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
@@ -1677,7 +2301,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="34">
       <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
@@ -1704,7 +2328,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -1731,7 +2355,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="34">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -1745,16 +2369,16 @@
         <v>1415</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
         <v>97</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" t="s">
         <v>99</v>
-      </c>
-      <c r="H7" t="s">
-        <v>100</v>
       </c>
       <c r="I7">
         <v>46</v>
@@ -1770,7 +2394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06804720-9728-B54D-A58C-EBC4257B67A3}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1778,7 +2402,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -1791,7 +2415,7 @@
     <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +2446,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="68">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -1860,17 +2484,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778B41AC-E536-6F4F-8445-EF258238FE3C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4B7F92-745E-5B4B-88EE-1B9DFB32B740}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="23" customFormat="1" ht="51">
+      <c r="A2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="13">
+        <v>969</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Problem List.xlsx
+++ b/Problem List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yao/Dropbox/leetcode_passed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EBA0B4-CD94-BE45-8C66-CDAC2C4A6F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC3CDA-3B0B-FD41-8D89-FE330862A44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" activeTab="9" xr2:uid="{971F3734-D38A-944A-9689-565BF33F7D69}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13680" activeTab="1" xr2:uid="{971F3734-D38A-944A-9689-565BF33F7D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="DP2" sheetId="7" r:id="rId8"/>
     <sheet name="sorting" sheetId="8" r:id="rId9"/>
     <sheet name="array, list" sheetId="9" r:id="rId10"/>
+    <sheet name="ptrs" sheetId="11" r:id="rId11"/>
+    <sheet name="heap,pq" sheetId="12" r:id="rId12"/>
+    <sheet name="complexity" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">backtracking!$A$1:$K$1</definedName>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="185">
   <si>
     <t xml:space="preserve">type </t>
   </si>
@@ -546,6 +549,105 @@
   </si>
   <si>
     <t>can also be solved with extra array</t>
+  </si>
+  <si>
+    <t>getPairSum()</t>
+  </si>
+  <si>
+    <t>custom sort string</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/custom-sort-string/</t>
+  </si>
+  <si>
+    <t>heappush(h, tuple), key is tuple[0]</t>
+  </si>
+  <si>
+    <t>heap</t>
+  </si>
+  <si>
+    <t>enumerate, minHeap, dictionary</t>
+  </si>
+  <si>
+    <t>partition array for maximum sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-array-for-maximum-sum/</t>
+  </si>
+  <si>
+    <t>dp[i] = max(dp[i-k], k*max(A[i-k+1:i]))       1 &lt;= k &lt;= min(i, k)</t>
+  </si>
+  <si>
+    <t>update max through looping</t>
+  </si>
+  <si>
+    <t>hard to come up with solution, be careful about border index</t>
+  </si>
+  <si>
+    <t>Maximum Difference Between Node and Ancestor</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-difference-between-node-and-ancestor/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top down approach vs bottom up approach ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertion </t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>time complexity</t>
+  </si>
+  <si>
+    <t>n(1)</t>
+  </si>
+  <si>
+    <t>while loop within a for loop</t>
+  </si>
+  <si>
+    <t>worst  O</t>
+  </si>
+  <si>
+    <t>ave  ⍬</t>
+  </si>
+  <si>
+    <t>best  Ω</t>
+  </si>
+  <si>
+    <t>minmax with memo</t>
+  </si>
+  <si>
+    <t>predict winner</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/predict-the-winner/submissions/</t>
+  </si>
+  <si>
+    <t>how to decide memo size? How to decide score heuristics max(player score - opponent's score)</t>
+  </si>
+  <si>
+    <t>daily temperature</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>mono stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/daily-temperatures/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">栈里存放什么？ Index </t>
   </si>
 </sst>
 </file>
@@ -601,7 +703,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,6 +740,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -652,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -728,6 +836,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -784,6 +901,161 @@
         <a:xfrm>
           <a:off x="1" y="0"/>
           <a:ext cx="8839200" cy="4210886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4586</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170365</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>167483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABCC419-B1F1-8D4C-8BBD-CC8F646B2E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4586" y="0"/>
+          <a:ext cx="8374316" cy="5805044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>111167</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>8016</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B369DE07-C61E-B845-A42E-CFE6919B1862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8436723" y="502084"/>
+          <a:ext cx="9280737" cy="4987138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112888</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>192124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBABBDF-EACE-9749-BE26-D4CCF6222932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="338666" y="5892818"/>
+          <a:ext cx="8099778" cy="6152639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1092,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4221AF81-DEED-2D44-A049-D6854125283D}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D14"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1167,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51">
+    <row r="3" spans="1:9" ht="34">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1547,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="51">
+    <row r="7" spans="1:9" ht="34">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -1478,6 +1750,29 @@
       </c>
       <c r="H14" s="8" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1026</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1499,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DB88C3-6BA9-D049-956E-7794CD3923A7}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1608,89 +1903,360 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD5D97-95E4-1B47-BEF3-F40C32EE5357}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6676D28-EC82-4044-9B57-4540E118CD74}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2">
+        <v>791</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62D1181-147D-1245-9CA7-9B12A6CCF272}">
+  <dimension ref="L38:Q40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="38" spans="12:17">
+      <c r="M38" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17">
+      <c r="M39" t="s">
+        <v>175</v>
+      </c>
+      <c r="N39" t="s">
+        <v>174</v>
+      </c>
+      <c r="O39" t="s">
+        <v>173</v>
+      </c>
+      <c r="P39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="12:17">
+      <c r="L40" t="s">
+        <v>166</v>
+      </c>
+      <c r="M40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" t="s">
+        <v>169</v>
+      </c>
+      <c r="O40" t="s">
+        <v>169</v>
+      </c>
+      <c r="P40" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M38:O38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB94368-34BE-F746-B88B-4E90CBF90096}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="D2">
         <v>1130</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="3" spans="1:11">
+      <c r="D3">
         <v>907</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="4" spans="1:11">
+      <c r="D4">
         <v>901</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="E4" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="5" spans="1:11">
+      <c r="D5">
         <v>856</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="E5" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="6" spans="1:11">
+      <c r="D6">
         <v>503</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="7" spans="1:11">
+      <c r="D7">
         <v>496</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="E7" s="25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="8" spans="1:11">
+      <c r="D8">
         <v>84</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="E8" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="9" spans="1:11">
+      <c r="D9">
         <v>42</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="10" spans="1:11">
+      <c r="D10">
         <v>1130</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11">
+        <v>739</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1783,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29F0AC-F96D-BA4D-AC0D-93788BDD8319}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1795,9 +2361,9 @@
     <col min="2" max="2" width="10" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="59.6640625" bestFit="1" customWidth="1"/>
@@ -2028,6 +2594,61 @@
       </c>
       <c r="J13" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1043</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="17">
+        <v>486</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="28">
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -2488,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778B41AC-E536-6F4F-8445-EF258238FE3C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>

--- a/Problem List.xlsx
+++ b/Problem List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okimy\Dropbox\leetcode_passed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yao/Dropbox/leetcode_passed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5AC07A-8DC0-4DC4-AAD0-181A912515BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1255C2C6-EA4D-974B-9583-EB8EAEF5B629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14300" tabRatio="636" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="math" sheetId="6" r:id="rId6"/>
     <sheet name="DP2" sheetId="7" r:id="rId7"/>
     <sheet name="sorting" sheetId="8" r:id="rId8"/>
-    <sheet name="array, list" sheetId="9" r:id="rId9"/>
-    <sheet name="ptrs" sheetId="10" r:id="rId10"/>
-    <sheet name="heap,pq" sheetId="11" r:id="rId11"/>
-    <sheet name="complexity" sheetId="12" r:id="rId12"/>
-    <sheet name="dfs,bfs" sheetId="13" r:id="rId13"/>
+    <sheet name="sliding win" sheetId="14" r:id="rId9"/>
+    <sheet name="array, list" sheetId="9" r:id="rId10"/>
+    <sheet name="ptrs" sheetId="10" r:id="rId11"/>
+    <sheet name="heap,pq" sheetId="11" r:id="rId12"/>
+    <sheet name="complexity" sheetId="12" r:id="rId13"/>
+    <sheet name="dfs,bfs" sheetId="13" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">backtracking!$A$1:$K$1</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="230">
   <si>
     <t>attempted</t>
   </si>
@@ -1184,6 +1185,30 @@
   </si>
   <si>
     <t>102, 1161</t>
+  </si>
+  <si>
+    <t>Count Number of Nice Subarrays</t>
+  </si>
+  <si>
+    <t>Replace the Substring for Balanced String</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t>Binary Subarrays With Sum</t>
+  </si>
+  <si>
+    <t>Subarrays with K Different Integers</t>
+  </si>
+  <si>
+    <t>Fruit Into Baskets</t>
+  </si>
+  <si>
+    <t>Shortest Subarray with Sum at Least K</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
   </si>
 </sst>
 </file>
@@ -1312,11 +1337,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,6 +1439,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1984,585 +2010,585 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.8125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.1875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="51.1875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="81.3125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.3125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="49.8125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="17.6875" style="7" customWidth="1"/>
-    <col min="10" max="11" width="10.8125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="81.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="49.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="6" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="17">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="34">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1347</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" ht="17">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>108</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>1382</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" ht="17">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>654</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="31.5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" ht="34">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>1110</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="47.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" ht="51">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>106</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>104</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="47.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:9" ht="51">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>105</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="48">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:9" ht="40">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>1214</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:9" ht="40" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>1382</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:9" ht="17">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>102</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>1161</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" ht="17">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>513</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:9" ht="17">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>515</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" ht="34">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>1161</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:9" ht="34">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>1315</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="17">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>998</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:9" ht="34">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>951</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="31.5">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:9" ht="34">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>366</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:9" ht="17">
+      <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>1026</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>889</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:9" ht="51">
+      <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>865</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:9" ht="17">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>199</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2581,6 +2607,120 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" activeCellId="1" sqref="A20:XFD20 E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="7" max="7" width="99.33203125" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2">
+        <v>986</v>
+      </c>
+      <c r="E2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2588,49 +2728,49 @@
       <selection activeCellId="1" sqref="A20:XFD20 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.8125" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="5.1875" customWidth="1"/>
-    <col min="4" max="4" width="2.1875" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" customWidth="1"/>
     <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="6" width="17.6875" customWidth="1"/>
-    <col min="7" max="7" width="12.6875" customWidth="1"/>
-    <col min="8" max="8" width="34.1875" customWidth="1"/>
-    <col min="9" max="9" width="15.1875" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
       <c r="F2" t="s">
@@ -2643,7 +2783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2651,52 +2791,52 @@
       <selection activeCell="G2" activeCellId="1" sqref="A20:XFD20 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.8125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="5.1875" customWidth="1"/>
-    <col min="4" max="4" width="4.1875" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="44.8125" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="34.1875" customWidth="1"/>
-    <col min="9" max="9" width="15.1875" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
@@ -2727,7 +2867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="L38:Q40"/>
   <sheetViews>
@@ -2735,17 +2875,17 @@
       <selection activeCell="Q41" activeCellId="1" sqref="A20:XFD20 Q41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="17" max="17" width="24.8125" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="38" spans="12:17">
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
       <c r="P38" t="s">
         <v>203</v>
       </c>
@@ -2794,7 +2934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2802,49 +2942,49 @@
       <selection activeCell="D3" activeCellId="1" sqref="A20:XFD20 D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.8125" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="5.1875" customWidth="1"/>
-    <col min="4" max="4" width="4.1875" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="52.1875" customWidth="1"/>
-    <col min="7" max="7" width="18.1875" customWidth="1"/>
-    <col min="8" max="8" width="34.1875" customWidth="1"/>
-    <col min="9" max="9" width="15.1875" customWidth="1"/>
+    <col min="6" max="6" width="52.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
@@ -2883,44 +3023,44 @@
       <selection activeCell="G14" activeCellId="1" sqref="A20:XFD20 G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="32.8125" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
-    <col min="7" max="7" width="37.6875" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
       <c r="C2" t="s">
@@ -2929,7 +3069,7 @@
       <c r="D2">
         <v>1130</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2940,7 +3080,7 @@
       <c r="D3">
         <v>907</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2951,7 +3091,7 @@
       <c r="D4">
         <v>901</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2962,7 +3102,7 @@
       <c r="D5">
         <v>856</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2973,7 +3113,7 @@
       <c r="D6">
         <v>503</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2984,7 +3124,7 @@
       <c r="D7">
         <v>496</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2995,7 +3135,7 @@
       <c r="D8">
         <v>84</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3006,7 +3146,7 @@
       <c r="D9">
         <v>42</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3017,7 +3157,7 @@
       <c r="D10">
         <v>1130</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3034,13 +3174,13 @@
       <c r="D11">
         <v>739</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>94</v>
       </c>
       <c r="H11" t="s">
@@ -3060,7 +3200,7 @@
       <c r="D12">
         <v>1249</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>95</v>
       </c>
       <c r="F12" t="s">
@@ -3083,7 +3223,7 @@
       <c r="D13">
         <v>946</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>98</v>
       </c>
       <c r="F13" t="s">
@@ -3107,167 +3247,167 @@
       <selection activeCell="G19" activeCellId="1" sqref="A20:XFD20 G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.8125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10" style="25" customWidth="1"/>
-    <col min="3" max="3" width="18.6875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="7.1875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="34.8125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="63.1875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="81.3125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="36.6875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="17.6875" customWidth="1"/>
-    <col min="10" max="10" width="59.6875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="63.1640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="81.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1395</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1314</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="109.5">
-      <c r="A4" s="7" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="119">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>70</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>62</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="7" t="s">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="17">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>62</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>926</v>
       </c>
       <c r="J6" t="s">
@@ -3275,7 +3415,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>845</v>
       </c>
       <c r="J7" t="s">
@@ -3283,7 +3423,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>801</v>
       </c>
       <c r="J8" t="s">
@@ -3291,7 +3431,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>926</v>
       </c>
       <c r="J9" t="s">
@@ -3299,7 +3439,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>790</v>
       </c>
       <c r="J10" t="s">
@@ -3307,7 +3447,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>818</v>
       </c>
       <c r="J11" t="s">
@@ -3315,33 +3455,33 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>1277</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>62</v>
       </c>
       <c r="J13" t="s">
@@ -3349,107 +3489,107 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>1043</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>486</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>877</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <v>931</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>1140</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>55</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <v>1143</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3472,107 +3612,107 @@
       <selection activeCellId="1" sqref="A20:XFD20 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.8125" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="10.1875" customWidth="1"/>
-    <col min="4" max="4" width="5.1875" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
     <col min="5" max="5" width="41.5" customWidth="1"/>
-    <col min="6" max="6" width="78.6875" customWidth="1"/>
+    <col min="6" max="6" width="78.6640625" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="34.1875" customWidth="1"/>
-    <col min="9" max="9" width="15.1875" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-    </row>
-    <row r="2" spans="1:11" ht="47.25">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="51">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1347</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="31.5">
-      <c r="A3" s="2" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="34">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>921</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
@@ -3592,213 +3732,213 @@
       <selection activeCell="D10" activeCellId="1" sqref="A20:XFD20 D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.8125" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="5.1875" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="35.6875" customWidth="1"/>
-    <col min="8" max="8" width="57.3125" customWidth="1"/>
-    <col min="9" max="9" width="15.1875" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+    <col min="8" max="8" width="57.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="17">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>46</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>1079</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="17">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>77</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="78.75">
-      <c r="A4" s="2" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="85">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>78</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="31.5">
-      <c r="A5" s="2" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="34">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>90</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="17">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>1079</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5">
-      <c r="A7" s="2" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="34">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D7">
         <v>1415</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F7" t="s">
         <v>168</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>169</v>
       </c>
       <c r="H7" t="s">
@@ -3808,29 +3948,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:11" ht="51">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>797</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3853,78 +3993,78 @@
       <selection activeCell="F5" activeCellId="1" sqref="A20:XFD20 F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.8125" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="13.1875" customWidth="1"/>
-    <col min="4" max="4" width="5.1875" customWidth="1"/>
-    <col min="5" max="5" width="22.8125" customWidth="1"/>
-    <col min="6" max="6" width="51.3125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="34.1875" customWidth="1"/>
-    <col min="9" max="9" width="15.1875" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-    </row>
-    <row r="2" spans="1:11" ht="63">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="68">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1329</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
@@ -3944,7 +4084,7 @@
       <selection activeCell="Q24" activeCellId="1" sqref="A20:XFD20 Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3960,78 +4100,78 @@
       <selection activeCellId="1" sqref="A20:XFD20 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.8125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.6875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="4.1875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.1875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="42.6875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="40.3125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="40.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.1875" style="3" customWidth="1"/>
-    <col min="10" max="12" width="10.8125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="40.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="2" customWidth="1"/>
+    <col min="10" max="12" width="10.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" ht="17">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="36" customFormat="1" ht="46.5">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:12" s="35" customFormat="1" ht="51">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>969</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4040,115 +4180,74 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8BE95D-056F-014B-858F-4B24DAA0D330}">
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" activeCellId="1" sqref="A20:XFD20 E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.8125" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.3125" customWidth="1"/>
-    <col min="4" max="4" width="4.1875" customWidth="1"/>
-    <col min="5" max="5" width="40.8125" customWidth="1"/>
-    <col min="6" max="6" width="50.3125" customWidth="1"/>
-    <col min="7" max="7" width="99.3125" customWidth="1"/>
-    <col min="8" max="8" width="34.3125" customWidth="1"/>
-    <col min="9" max="9" width="15.1875" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2">
-        <v>986</v>
-      </c>
-      <c r="E2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30.75">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3">
-        <v>189</v>
-      </c>
-      <c r="E3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" t="s">
-        <v>195</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/count-number-of-nice-subarrays/discuss/419378/JavaC%2B%2BPython-Sliding-Window-atMost(K)-atMost(K-1)" xr:uid="{C686291D-33CF-D645-8535-D0E9DC43C076}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://leetcode.com/problems/replace-the-substring-for-balanced-string/discuss/408978/javacpython-sliding-window/367697" xr:uid="{E966597A-5286-6B45-9D1F-EF668DAE3E19}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://leetcode.com/problems/max-consecutive-ones-iii/discuss/247564/javacpython-sliding-window/379427?page=3" xr:uid="{139561A5-530D-9341-AAEA-8AA8FD126A64}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://leetcode.com/problems/binary-subarrays-with-sum/discuss/186683/" xr:uid="{6F8C2CB7-8FC4-6A49-B504-F3665C6FEF77}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://leetcode.com/problems/subarrays-with-k-different-integers/discuss/234482/JavaC%2B%2BPython-Sliding-Window-atMost(K)-atMost(K-1)" xr:uid="{5C05D97A-1958-A34D-887A-4DCA44E78637}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://leetcode.com/problems/fruit-into-baskets/discuss/170740/Sliding-Window-for-K-Elements" xr:uid="{11BDB5D3-B891-0B40-A300-E048DD38E493}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/discuss/143726/C%2B%2BJavaPython-O(N)-Using-Deque" xr:uid="{E405FD1D-C3F2-4849-B6C2-FBC38C1C79C8}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://leetcode.com/problems/minimum-size-subarray-sum/discuss/433123/JavaC++Python-Sliding-Window" xr:uid="{24D8FB68-E594-6B40-B938-2B4E0424A406}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Problem List.xlsx
+++ b/Problem List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yao/Dropbox/leetcode_passed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okimy\workspace\leetcode\python_leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1255C2C6-EA4D-974B-9583-EB8EAEF5B629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0676E6-EB11-4583-B068-81024422CBBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14300" tabRatio="636" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" tabRatio="784" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="232">
   <si>
     <t>attempted</t>
   </si>
@@ -1209,6 +1209,12 @@
   </si>
   <si>
     <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>pyramid transition matrix</t>
+  </si>
+  <si>
+    <t>level by level, one triangle at a time</t>
   </si>
 </sst>
 </file>
@@ -1439,10 +1445,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2014,21 +2020,21 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="81.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="62.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="49.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="6" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.1875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.1875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="81.3125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.3125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="49.8125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.6875" style="6" customWidth="1"/>
+    <col min="10" max="11" width="10.8125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34">
+    <row r="2" spans="1:9" ht="31.5">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34">
+    <row r="5" spans="1:9" ht="31.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="51">
+    <row r="6" spans="1:9" ht="47.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="51">
+    <row r="8" spans="1:9" ht="47.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40">
+    <row r="9" spans="1:9" ht="48">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40" customHeight="1">
+    <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="34">
+    <row r="14" spans="1:9" ht="31.5">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="34">
+    <row r="15" spans="1:9" ht="31.5">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2416,7 +2422,7 @@
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="34">
+    <row r="17" spans="1:9" ht="31.5">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="34">
+    <row r="18" spans="1:9" ht="31.5">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="51">
+    <row r="21" spans="1:9" ht="47.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -2614,20 +2620,20 @@
       <selection activeCell="E3" activeCellId="1" sqref="A20:XFD20 E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.8125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
-    <col min="7" max="7" width="99.33203125" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.3125" customWidth="1"/>
+    <col min="4" max="4" width="4.1875" customWidth="1"/>
+    <col min="5" max="5" width="40.8125" customWidth="1"/>
+    <col min="6" max="6" width="50.3125" customWidth="1"/>
+    <col min="7" max="7" width="99.3125" customWidth="1"/>
+    <col min="8" max="8" width="34.3125" customWidth="1"/>
+    <col min="9" max="9" width="15.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17">
+    <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34">
+    <row r="3" spans="1:12" ht="30.75">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2728,20 +2734,20 @@
       <selection activeCellId="1" sqref="A20:XFD20 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.8125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" customWidth="1"/>
+    <col min="3" max="3" width="5.1875" customWidth="1"/>
+    <col min="4" max="4" width="2.1875" customWidth="1"/>
     <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6875" customWidth="1"/>
+    <col min="7" max="7" width="12.6875" customWidth="1"/>
+    <col min="8" max="8" width="34.1875" customWidth="1"/>
+    <col min="9" max="9" width="15.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2791,20 +2797,20 @@
       <selection activeCell="G2" activeCellId="1" sqref="A20:XFD20 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="9.8125" style="35" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="5.1875" customWidth="1"/>
+    <col min="4" max="4" width="4.1875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" customWidth="1"/>
+    <col min="6" max="6" width="44.8125" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.1875" customWidth="1"/>
+    <col min="9" max="9" width="15.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2871,21 +2877,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="L38:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q41" activeCellId="1" sqref="A20:XFD20 Q41"/>
+    <sheetView topLeftCell="C19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="17" max="17" width="24.83203125" customWidth="1"/>
+    <col min="17" max="17" width="24.8125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="38" spans="12:17">
-      <c r="M38" s="37" t="s">
+      <c r="M38" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
       <c r="P38" t="s">
         <v>203</v>
       </c>
@@ -2936,26 +2942,26 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" activeCellId="1" sqref="A20:XFD20 D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.8125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="5.1875" customWidth="1"/>
+    <col min="4" max="4" width="4.1875" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="52.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="52.1875" customWidth="1"/>
+    <col min="7" max="7" width="18.1875" customWidth="1"/>
+    <col min="8" max="8" width="34.1875" customWidth="1"/>
+    <col min="9" max="9" width="15.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3007,6 +3013,26 @@
       </c>
       <c r="G2" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>756</v>
+      </c>
+      <c r="E3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3023,15 +3049,15 @@
       <selection activeCell="G14" activeCellId="1" sqref="A20:XFD20 G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.8125" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3247,21 +3273,21 @@
       <selection activeCell="G19" activeCellId="1" sqref="A20:XFD20 G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="14.8125" style="24" customWidth="1"/>
     <col min="2" max="2" width="10" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="63.1640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="81.33203125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="7.1875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="34.8125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="63.1875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="81.3125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="36.6875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="17.6875" customWidth="1"/>
+    <col min="10" max="10" width="59.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3344,7 +3370,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="119">
+    <row r="4" spans="1:11" ht="109.5">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -3377,7 +3403,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -3612,20 +3638,20 @@
       <selection activeCellId="1" sqref="A20:XFD20 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.8125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1875" customWidth="1"/>
+    <col min="4" max="4" width="5.1875" customWidth="1"/>
     <col min="5" max="5" width="41.5" customWidth="1"/>
-    <col min="6" max="6" width="78.6640625" customWidth="1"/>
+    <col min="6" max="6" width="78.6875" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.1875" customWidth="1"/>
+    <col min="9" max="9" width="15.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3656,7 +3682,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="1:11" ht="51">
+    <row r="2" spans="1:11" ht="47.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3685,7 +3711,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="34">
+    <row r="3" spans="1:11" ht="31.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3732,20 +3758,20 @@
       <selection activeCell="D10" activeCellId="1" sqref="A20:XFD20 D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.8125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.1875" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="57.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="35.6875" customWidth="1"/>
+    <col min="8" max="8" width="57.3125" customWidth="1"/>
+    <col min="9" max="9" width="15.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3776,7 +3802,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3807,7 +3833,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3834,7 +3860,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="85">
+    <row r="4" spans="1:11" ht="78.75">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3865,7 +3891,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="34">
+    <row r="5" spans="1:11" ht="31.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3892,7 +3918,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3919,7 +3945,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="34">
+    <row r="7" spans="1:11" ht="31.5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3948,7 +3974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="51">
+    <row r="8" spans="1:11" ht="47.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -3993,20 +4019,20 @@
       <selection activeCell="F5" activeCellId="1" sqref="A20:XFD20 F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.8125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1875" customWidth="1"/>
+    <col min="4" max="4" width="5.1875" customWidth="1"/>
+    <col min="5" max="5" width="22.8125" customWidth="1"/>
+    <col min="6" max="6" width="51.3125" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.1875" customWidth="1"/>
+    <col min="9" max="9" width="15.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4063,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="1:11" ht="68">
+    <row r="2" spans="1:11" ht="63">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4084,7 +4110,7 @@
       <selection activeCell="Q24" activeCellId="1" sqref="A20:XFD20 Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4100,21 +4126,21 @@
       <selection activeCellId="1" sqref="A20:XFD20 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.8125" style="6" customWidth="1"/>
     <col min="2" max="2" width="5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.6875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.1875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.1875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="42.6875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="40.3125" style="6" customWidth="1"/>
     <col min="8" max="8" width="40.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="2" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.1875" style="2" customWidth="1"/>
+    <col min="10" max="12" width="10.8125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17">
+    <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4143,7 +4169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="35" customFormat="1" ht="51">
+    <row r="2" spans="1:12" s="35" customFormat="1" ht="46.5">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -4183,52 +4209,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8BE95D-056F-014B-858F-4B24DAA0D330}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>229</v>
       </c>
     </row>

--- a/Problem List.xlsx
+++ b/Problem List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okimy\workspace\leetcode\python_leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0676E6-EB11-4583-B068-81024422CBBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F2BA65-01DD-40D2-8328-F4C2F2B7E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" tabRatio="784" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="784" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="237">
   <si>
     <t>attempted</t>
   </si>
@@ -1215,13 +1215,58 @@
   </si>
   <si>
     <t>level by level, one triangle at a time</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>2 pointers</t>
+  </si>
+  <si>
+    <t>方法2： 前2个元素用看么？ Pos 和 i 的初始值 是不是应该在一起？ Pos记得递增到下一个位置。</t>
+  </si>
+  <si>
+    <t>Pos 指向需要插入位置 用 for 循环 ith element 和 pos -2 的元素比较。 如果不一样 那么说明 这个第ith ele需要被放进到新的array中。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Given a sorted array nums, remove the duplicates in-place such that duplicates appeared </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">at most twice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">and return the new length.Do not allocate extra space for another array; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>you must do this by modifying the input array in-place with O(1) extra memory.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1285,6 +1330,12 @@
       <name val="Calibri (Body)"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1330,7 +1381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1338,12 +1389,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1387,26 +1453,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1417,22 +1479,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1441,13 +1500,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2313,7 +2392,7 @@
       <c r="F11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I11" s="6">
@@ -2330,7 +2409,7 @@
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>513</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2362,10 +2441,10 @@
       <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2376,7 +2455,7 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1">
@@ -2420,7 +2499,7 @@
       <c r="G15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="19"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
@@ -2556,10 +2635,10 @@
       <c r="D21" s="1">
         <v>865</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -2652,7 +2731,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -2713,7 +2792,7 @@
       <c r="F3" t="s">
         <v>193</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="32" t="s">
         <v>194</v>
       </c>
       <c r="H3" t="s">
@@ -2728,64 +2807,163 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCellId="1" sqref="A20:XFD20 A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.8125" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="5.1875" customWidth="1"/>
-    <col min="4" max="4" width="2.1875" customWidth="1"/>
-    <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="6" width="17.6875" customWidth="1"/>
-    <col min="7" max="7" width="12.6875" customWidth="1"/>
-    <col min="8" max="8" width="34.1875" customWidth="1"/>
-    <col min="9" max="9" width="15.1875" customWidth="1"/>
+    <col min="1" max="1" width="9.8125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="8.9375" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="35.8125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="34.1875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="15.1875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="F2" t="s">
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40" t="s">
         <v>196</v>
       </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="110.25">
+      <c r="A3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="40">
+        <v>80</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2799,7 +2977,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.8125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="9.8125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="5.1875" customWidth="1"/>
     <col min="4" max="4" width="4.1875" customWidth="1"/>
@@ -2842,7 +3020,7 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="35" t="s">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
@@ -2887,11 +3065,11 @@
   </cols>
   <sheetData>
     <row r="38" spans="12:17">
-      <c r="M38" s="38" t="s">
+      <c r="M38" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
       <c r="P38" t="s">
         <v>203</v>
       </c>
@@ -2944,7 +3122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -3095,7 +3273,7 @@
       <c r="D2">
         <v>1130</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3106,7 +3284,7 @@
       <c r="D3">
         <v>907</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3117,7 +3295,7 @@
       <c r="D4">
         <v>901</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3128,7 +3306,7 @@
       <c r="D5">
         <v>856</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3139,7 +3317,7 @@
       <c r="D6">
         <v>503</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3150,7 +3328,7 @@
       <c r="D7">
         <v>496</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3161,7 +3339,7 @@
       <c r="D8">
         <v>84</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3172,7 +3350,7 @@
       <c r="D9">
         <v>42</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3183,7 +3361,7 @@
       <c r="D10">
         <v>1130</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3200,13 +3378,13 @@
       <c r="D11">
         <v>739</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" t="s">
         <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="21" t="s">
         <v>94</v>
       </c>
       <c r="H11" t="s">
@@ -3226,7 +3404,7 @@
       <c r="D12">
         <v>1249</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" t="s">
         <v>95</v>
       </c>
       <c r="F12" t="s">
@@ -3249,7 +3427,7 @@
       <c r="D13">
         <v>946</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" t="s">
         <v>98</v>
       </c>
       <c r="F13" t="s">
@@ -3275,14 +3453,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.8125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="10" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18.6875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="7.1875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="34.8125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="63.1875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="81.3125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="36.6875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="14.8125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.6875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.1875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="34.8125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="63.1875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="81.3125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="36.6875" style="22" customWidth="1"/>
     <col min="9" max="9" width="17.6875" customWidth="1"/>
     <col min="10" max="10" width="59.6875" customWidth="1"/>
   </cols>
@@ -3306,19 +3484,19 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="27"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
@@ -3336,11 +3514,11 @@
       <c r="E2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="29"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="6"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3361,11 +3539,11 @@
       <c r="E3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="6"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3386,13 +3564,13 @@
       <c r="E4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="26" t="s">
         <v>112</v>
       </c>
       <c r="I4" s="1">
@@ -3413,27 +3591,27 @@
       <c r="C5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <v>62</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>926</v>
       </c>
       <c r="J6" t="s">
@@ -3441,7 +3619,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>845</v>
       </c>
       <c r="J7" t="s">
@@ -3449,7 +3627,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="D8" s="24">
+      <c r="D8" s="22">
         <v>801</v>
       </c>
       <c r="J8" t="s">
@@ -3457,7 +3635,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <v>926</v>
       </c>
       <c r="J9" t="s">
@@ -3465,7 +3643,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>790</v>
       </c>
       <c r="J10" t="s">
@@ -3473,7 +3651,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>818</v>
       </c>
       <c r="J11" t="s">
@@ -3481,33 +3659,33 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="22">
         <v>1277</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <v>62</v>
       </c>
       <c r="J13" t="s">
@@ -3515,107 +3693,107 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="28">
         <v>1043</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="22">
         <v>486</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="15">
         <v>877</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <v>931</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <v>1140</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="22" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <v>55</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="28">
         <v>1143</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="22" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3679,8 +3857,8 @@
       <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="47.25">
       <c r="A2" s="1" t="s">
@@ -3799,8 +3977,8 @@
       <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -3824,7 +4002,7 @@
       <c r="G2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>151</v>
       </c>
       <c r="I2" s="6">
@@ -3854,7 +4032,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>154</v>
       </c>
       <c r="J3" s="2"/>
@@ -3870,7 +4048,7 @@
       <c r="C4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="30">
         <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3885,7 +4063,7 @@
       <c r="H4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>159</v>
       </c>
       <c r="J4" s="2"/>
@@ -3901,7 +4079,7 @@
       <c r="C5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -3993,7 +4171,7 @@
       <c r="F8" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>174</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -4060,8 +4238,8 @@
       <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="63">
       <c r="A2" s="1" t="s">
@@ -4070,7 +4248,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>176</v>
       </c>
       <c r="D2" s="1">
@@ -4140,7 +4318,7 @@
     <col min="10" max="12" width="10.8125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4337,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -4169,7 +4347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="35" customFormat="1" ht="46.5">
+    <row r="2" spans="1:9" ht="46.5">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -4188,16 +4366,12 @@
       <c r="F2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="31" t="s">
         <v>184</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4210,7 +4384,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B21" sqref="A18:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4219,42 +4393,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="20" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="20" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="20" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="20" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="20" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="20" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="20" t="s">
         <v>229</v>
       </c>
     </row>
